--- a/data/mta_stations_to_chart.xlsx
+++ b/data/mta_stations_to_chart.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellyjones/metis/kpj/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{92511C29-D371-7A4A-B59D-CF234713AE39}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE629EE2-1C48-A448-8688-9CEE74BA32FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="single_loc" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="826">
   <si>
     <t>station_pandas</t>
   </si>
@@ -2483,12 +2483,30 @@
   </si>
   <si>
     <t>Station ID</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>rec_category</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Engagement</t>
+  </si>
+  <si>
+    <t>Other Stations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3323,14 +3341,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3346,8 +3366,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3363,8 +3389,14 @@
       <c r="E2">
         <v>-73.866</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3380,8 +3412,14 @@
       <c r="E3">
         <v>-73.991</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3397,8 +3435,14 @@
       <c r="E4">
         <v>-73.976848000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3414,8 +3458,14 @@
       <c r="E5">
         <v>-73.976218000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3431,8 +3481,14 @@
       <c r="E6">
         <v>-73.987949999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3448,8 +3504,14 @@
       <c r="E7">
         <v>-73.992821000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3465,8 +3527,14 @@
       <c r="E8">
         <v>-73.990567999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3482,8 +3550,14 @@
       <c r="E9">
         <v>-73.987494999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3499,8 +3573,14 @@
       <c r="E10">
         <v>-74.008584999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3516,8 +3596,14 @@
       <c r="E11">
         <v>-73.975375</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3533,8 +3619,14 @@
       <c r="E12">
         <v>-74.005229</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3550,8 +3642,14 @@
       <c r="E13">
         <v>-73.981735999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3567,8 +3665,14 @@
       <c r="E14">
         <v>-73.937594000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3584,8 +3688,14 @@
       <c r="E15">
         <v>-73.972323000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -3600,6 +3710,12 @@
       </c>
       <c r="E16">
         <v>-73.830029999999994</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -3608,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -3647,7 +3763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3659,7 +3775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K498"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
